--- a/import/Zones.xlsx
+++ b/import/Zones.xlsx
@@ -8,10 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Zones" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Zone" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Zones!$A$3:$D$753</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Zone!$A$3:$D$754</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="85">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -657,6 +657,18 @@
     <t xml:space="preserve">noyel_kantan</t>
   </si>
   <si>
+    <t xml:space="preserve">instance_crim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地下工場</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manufacturing Site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zone_Harvest</t>
+  </si>
+  <si>
     <t xml:space="preserve">instance_guild_merchant</t>
   </si>
   <si>
@@ -1128,14 +1140,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:XFD753"/>
+  <dimension ref="A1:XFD754"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N21" activeCellId="0" sqref="N21:N23"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2713,19 +2725,18 @@
       <c r="XFC19" s="1"/>
       <c r="XFD19" s="1"/>
     </row>
-    <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="s">
+    <row r="20" s="2" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>1</v>
@@ -2733,20 +2744,15 @@
       <c r="G20" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="H20" s="4"/>
       <c r="I20" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4" t="s">
-        <v>68</v>
+      <c r="K20" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
       <c r="P20" s="2" t="n">
         <v>0</v>
       </c>
@@ -2756,14 +2762,58 @@
       <c r="R20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
+      <c r="XDH20" s="0"/>
+      <c r="XDI20" s="0"/>
+      <c r="XDJ20" s="0"/>
+      <c r="XDK20" s="0"/>
+      <c r="XDL20" s="0"/>
+      <c r="XDM20" s="0"/>
+      <c r="XDN20" s="0"/>
+      <c r="XDO20" s="0"/>
+      <c r="XDP20" s="0"/>
+      <c r="XDQ20" s="0"/>
+      <c r="XDR20" s="0"/>
+      <c r="XDS20" s="0"/>
+      <c r="XDT20" s="0"/>
+      <c r="XDU20" s="0"/>
+      <c r="XDV20" s="0"/>
+      <c r="XDW20" s="0"/>
+      <c r="XDX20" s="0"/>
+      <c r="XDY20" s="0"/>
+      <c r="XDZ20" s="0"/>
+      <c r="XEA20" s="0"/>
+      <c r="XEB20" s="0"/>
+      <c r="XEC20" s="0"/>
+      <c r="XED20" s="0"/>
+      <c r="XEE20" s="0"/>
+      <c r="XEF20" s="0"/>
+      <c r="XEG20" s="0"/>
+      <c r="XEH20" s="0"/>
+      <c r="XEI20" s="0"/>
+      <c r="XEJ20" s="0"/>
+      <c r="XEK20" s="0"/>
+      <c r="XEL20" s="0"/>
+      <c r="XEM20" s="0"/>
+      <c r="XEN20" s="0"/>
+      <c r="XEO20" s="0"/>
+      <c r="XEP20" s="0"/>
+      <c r="XEQ20" s="0"/>
+      <c r="XER20" s="0"/>
+      <c r="XES20" s="0"/>
+      <c r="XET20" s="0"/>
+      <c r="XEU20" s="0"/>
+      <c r="XEV20" s="0"/>
+      <c r="XEW20" s="0"/>
+      <c r="XEX20" s="0"/>
+      <c r="XEY20" s="0"/>
+      <c r="XEZ20" s="0"/>
+      <c r="XFA20" s="0"/>
+      <c r="XFB20" s="0"/>
+      <c r="XFC20" s="0"/>
+      <c r="XFD20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="3" t="s">
         <v>69</v>
       </c>
       <c r="B21" s="6"/>
@@ -2794,7 +2844,7 @@
         <v>33</v>
       </c>
       <c r="M21" s="4"/>
-      <c r="N21" s="2"/>
+      <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="2" t="n">
         <v>0</v>
@@ -2811,7 +2861,7 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
     </row>
-    <row r="22" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="7" t="s">
         <v>73</v>
       </c>
@@ -2864,7 +2914,7 @@
       <c r="A23" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="4"/>
+      <c r="B23" s="6"/>
       <c r="C23" s="4" t="s">
         <v>78</v>
       </c>
@@ -2880,20 +2930,20 @@
       <c r="G23" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="4"/>
       <c r="I23" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8" t="s">
+      <c r="J23" s="4"/>
+      <c r="K23" s="4" t="s">
         <v>80</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="8"/>
+      <c r="M23" s="4"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="8"/>
+      <c r="O23" s="4"/>
       <c r="P23" s="2" t="n">
         <v>0</v>
       </c>
@@ -2903,41 +2953,65 @@
       <c r="R23" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="S23" s="8"/>
-      <c r="T23" s="8"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="8"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
     </row>
     <row r="24" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="9"/>
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="U24" s="9"/>
-      <c r="V24" s="9"/>
-      <c r="W24" s="9"/>
+      <c r="A24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="H24" s="8"/>
+      <c r="I24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8"/>
+      <c r="K24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="8"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="3"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="4"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="4"/>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -3011,7 +3085,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="3"/>
-      <c r="B28" s="4"/>
+      <c r="B28" s="6"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="9"/>
@@ -3037,32 +3111,32 @@
     <row r="29" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="6"/>
+      <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
-      <c r="V29" s="4"/>
-      <c r="W29" s="4"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
+      <c r="S29" s="9"/>
+      <c r="T29" s="9"/>
+      <c r="U29" s="9"/>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
     </row>
     <row r="30" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="3"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="C30" s="6"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
@@ -3084,9 +3158,9 @@
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
     </row>
-    <row r="31" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="3"/>
-      <c r="B31" s="6"/>
+      <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -3109,10 +3183,10 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="3"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -3137,7 +3211,7 @@
     <row r="33" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
@@ -3164,25 +3238,25 @@
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-      <c r="J34" s="9"/>
-      <c r="K34" s="9"/>
-      <c r="L34" s="9"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="9"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="9"/>
-      <c r="V34" s="9"/>
-      <c r="W34" s="9"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+      <c r="R34" s="4"/>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
     </row>
     <row r="35" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="3"/>
@@ -3214,25 +3288,25 @@
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
-      <c r="P36" s="4"/>
-      <c r="Q36" s="4"/>
-      <c r="R36" s="4"/>
-      <c r="S36" s="4"/>
-      <c r="T36" s="4"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="9"/>
+      <c r="W36" s="9"/>
     </row>
     <row r="37" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="3"/>
@@ -3289,25 +3363,25 @@
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-      <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="9"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="9"/>
-      <c r="V39" s="9"/>
-      <c r="W39" s="9"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
     </row>
     <row r="40" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="3"/>
@@ -3339,25 +3413,25 @@
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-      <c r="O41" s="4"/>
-      <c r="P41" s="4"/>
-      <c r="Q41" s="4"/>
-      <c r="R41" s="4"/>
-      <c r="S41" s="4"/>
-      <c r="T41" s="4"/>
-      <c r="U41" s="4"/>
-      <c r="V41" s="4"/>
-      <c r="W41" s="4"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+      <c r="W41" s="9"/>
     </row>
     <row r="42" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="3"/>
@@ -3387,7 +3461,7 @@
     <row r="43" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="6"/>
+      <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
@@ -3412,7 +3486,7 @@
     <row r="44" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="C44" s="6"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
@@ -3436,33 +3510,33 @@
     </row>
     <row r="45" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="3"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="U45" s="9"/>
-      <c r="V45" s="9"/>
-      <c r="W45" s="9"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
     </row>
     <row r="46" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="3"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
       <c r="D46" s="4"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -3786,7 +3860,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="3"/>
-      <c r="B59" s="6"/>
+      <c r="B59" s="4"/>
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="9"/>
@@ -3814,29 +3888,29 @@
       <c r="B60" s="6"/>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="R60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
+      <c r="W60" s="9"/>
     </row>
     <row r="61" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="3"/>
-      <c r="B61" s="4"/>
+      <c r="B61" s="6"/>
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
@@ -3861,7 +3935,7 @@
     </row>
     <row r="62" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="3"/>
-      <c r="B62" s="6"/>
+      <c r="B62" s="4"/>
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
@@ -3961,7 +4035,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="3"/>
-      <c r="B66" s="4"/>
+      <c r="B66" s="6"/>
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
@@ -4112,7 +4186,7 @@
     <row r="72" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="6"/>
+      <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
@@ -4137,7 +4211,7 @@
     <row r="73" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
+      <c r="C73" s="6"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
@@ -4436,7 +4510,7 @@
     </row>
     <row r="85" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A85" s="3"/>
-      <c r="B85" s="6"/>
+      <c r="B85" s="4"/>
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
@@ -4461,7 +4535,7 @@
     </row>
     <row r="86" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="3"/>
-      <c r="B86" s="4"/>
+      <c r="B86" s="6"/>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
@@ -4536,7 +4610,7 @@
     </row>
     <row r="89" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="3"/>
-      <c r="B89" s="6"/>
+      <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
@@ -4559,7 +4633,7 @@
       <c r="V89" s="4"/>
       <c r="W89" s="4"/>
     </row>
-    <row r="90" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="3"/>
       <c r="B90" s="6"/>
       <c r="C90" s="4"/>
@@ -4811,7 +4885,7 @@
     </row>
     <row r="100" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="3"/>
-      <c r="B100" s="4"/>
+      <c r="B100" s="6"/>
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
@@ -4836,7 +4910,7 @@
     </row>
     <row r="101" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A101" s="3"/>
-      <c r="B101" s="6"/>
+      <c r="B101" s="4"/>
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
@@ -4911,7 +4985,7 @@
     </row>
     <row r="104" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A104" s="3"/>
-      <c r="B104" s="4"/>
+      <c r="B104" s="6"/>
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
@@ -5184,7 +5258,7 @@
       <c r="V114" s="4"/>
       <c r="W114" s="4"/>
     </row>
-    <row r="115" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -5261,7 +5335,7 @@
     </row>
     <row r="118" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="3"/>
-      <c r="B118" s="6"/>
+      <c r="B118" s="4"/>
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
@@ -5311,7 +5385,7 @@
     </row>
     <row r="120" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="3"/>
-      <c r="B120" s="4"/>
+      <c r="B120" s="6"/>
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
@@ -5336,7 +5410,7 @@
     </row>
     <row r="121" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A121" s="3"/>
-      <c r="B121" s="6"/>
+      <c r="B121" s="4"/>
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
@@ -5486,7 +5560,7 @@
     </row>
     <row r="127" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="3"/>
-      <c r="B127" s="10"/>
+      <c r="B127" s="6"/>
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
@@ -5511,7 +5585,7 @@
     </row>
     <row r="128" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="3"/>
-      <c r="B128" s="6"/>
+      <c r="B128" s="10"/>
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
@@ -5686,7 +5760,7 @@
     </row>
     <row r="135" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A135" s="3"/>
-      <c r="B135" s="4"/>
+      <c r="B135" s="6"/>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
@@ -6362,7 +6436,7 @@
     <row r="162" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="3"/>
       <c r="B162" s="4"/>
-      <c r="C162" s="3"/>
+      <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
@@ -6487,7 +6561,7 @@
     <row r="167" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="3"/>
       <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
+      <c r="C167" s="3"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
@@ -6811,7 +6885,7 @@
     </row>
     <row r="180" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="3"/>
-      <c r="B180" s="11"/>
+      <c r="B180" s="4"/>
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
@@ -6836,7 +6910,7 @@
     </row>
     <row r="181" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="3"/>
-      <c r="B181" s="4"/>
+      <c r="B181" s="11"/>
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
@@ -6961,7 +7035,7 @@
     </row>
     <row r="186" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="3"/>
-      <c r="B186" s="11"/>
+      <c r="B186" s="4"/>
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
@@ -7036,7 +7110,7 @@
     </row>
     <row r="189" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="3"/>
-      <c r="B189" s="4"/>
+      <c r="B189" s="11"/>
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
@@ -8337,7 +8411,7 @@
     <row r="241" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A241" s="3"/>
       <c r="B241" s="4"/>
-      <c r="C241" s="3"/>
+      <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
@@ -8387,7 +8461,7 @@
     <row r="243" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A243" s="3"/>
       <c r="B243" s="4"/>
-      <c r="C243" s="4"/>
+      <c r="C243" s="3"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
@@ -13334,7 +13408,7 @@
       <c r="V440" s="4"/>
       <c r="W440" s="4"/>
     </row>
-    <row r="441" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="441" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A441" s="3"/>
       <c r="B441" s="4"/>
       <c r="C441" s="4"/>
@@ -13410,7 +13484,7 @@
       <c r="W443" s="4"/>
     </row>
     <row r="444" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A444" s="4"/>
+      <c r="A444" s="3"/>
       <c r="B444" s="4"/>
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
@@ -13435,7 +13509,7 @@
       <c r="W444" s="4"/>
     </row>
     <row r="445" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A445" s="3"/>
+      <c r="A445" s="4"/>
       <c r="B445" s="4"/>
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
@@ -13834,7 +13908,7 @@
       <c r="V460" s="4"/>
       <c r="W460" s="4"/>
     </row>
-    <row r="461" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="461" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A461" s="3"/>
       <c r="B461" s="4"/>
       <c r="C461" s="4"/>
@@ -15209,7 +15283,7 @@
       <c r="V515" s="4"/>
       <c r="W515" s="4"/>
     </row>
-    <row r="516" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="516" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A516" s="3"/>
       <c r="B516" s="4"/>
       <c r="C516" s="4"/>
@@ -15409,7 +15483,7 @@
       <c r="V523" s="4"/>
       <c r="W523" s="4"/>
     </row>
-    <row r="524" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="524" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A524" s="3"/>
       <c r="B524" s="4"/>
       <c r="C524" s="4"/>
@@ -15434,7 +15508,7 @@
       <c r="V524" s="4"/>
       <c r="W524" s="4"/>
     </row>
-    <row r="525" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="525" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A525" s="3"/>
       <c r="B525" s="4"/>
       <c r="C525" s="4"/>
@@ -15884,7 +15958,7 @@
       <c r="V542" s="4"/>
       <c r="W542" s="4"/>
     </row>
-    <row r="543" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="543" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A543" s="3"/>
       <c r="B543" s="4"/>
       <c r="C543" s="4"/>
@@ -16360,7 +16434,7 @@
       <c r="W561" s="4"/>
     </row>
     <row r="562" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A562" s="12"/>
+      <c r="A562" s="3"/>
       <c r="B562" s="4"/>
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
@@ -16410,7 +16484,7 @@
       <c r="W563" s="4"/>
     </row>
     <row r="564" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A564" s="3"/>
+      <c r="A564" s="12"/>
       <c r="B564" s="4"/>
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
@@ -16984,7 +17058,7 @@
       <c r="V586" s="4"/>
       <c r="W586" s="4"/>
     </row>
-    <row r="587" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="587" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A587" s="3"/>
       <c r="B587" s="4"/>
       <c r="C587" s="4"/>
@@ -17409,7 +17483,7 @@
       <c r="V603" s="4"/>
       <c r="W603" s="4"/>
     </row>
-    <row r="604" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="604" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A604" s="3"/>
       <c r="B604" s="4"/>
       <c r="C604" s="4"/>
@@ -17559,9 +17633,9 @@
       <c r="V609" s="4"/>
       <c r="W609" s="4"/>
     </row>
-    <row r="610" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="610" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A610" s="3"/>
-      <c r="B610" s="6"/>
+      <c r="B610" s="4"/>
       <c r="C610" s="4"/>
       <c r="D610" s="4"/>
       <c r="E610" s="4"/>
@@ -17584,9 +17658,9 @@
       <c r="V610" s="4"/>
       <c r="W610" s="4"/>
     </row>
-    <row r="611" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="611" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A611" s="3"/>
-      <c r="B611" s="4"/>
+      <c r="B611" s="6"/>
       <c r="C611" s="4"/>
       <c r="D611" s="4"/>
       <c r="E611" s="4"/>
@@ -18761,7 +18835,7 @@
     </row>
     <row r="658" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A658" s="3"/>
-      <c r="B658" s="11"/>
+      <c r="B658" s="4"/>
       <c r="C658" s="4"/>
       <c r="D658" s="4"/>
       <c r="E658" s="4"/>
@@ -18786,7 +18860,7 @@
     </row>
     <row r="659" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A659" s="3"/>
-      <c r="B659" s="13"/>
+      <c r="B659" s="11"/>
       <c r="C659" s="4"/>
       <c r="D659" s="4"/>
       <c r="E659" s="4"/>
@@ -18811,7 +18885,7 @@
     </row>
     <row r="660" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A660" s="3"/>
-      <c r="B660" s="4"/>
+      <c r="B660" s="13"/>
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
       <c r="E660" s="4"/>
@@ -19710,7 +19784,7 @@
       <c r="W695" s="4"/>
     </row>
     <row r="696" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A696" s="14"/>
+      <c r="A696" s="3"/>
       <c r="B696" s="4"/>
       <c r="C696" s="4"/>
       <c r="D696" s="4"/>
@@ -19735,7 +19809,7 @@
       <c r="W696" s="4"/>
     </row>
     <row r="697" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A697" s="3"/>
+      <c r="A697" s="14"/>
       <c r="B697" s="4"/>
       <c r="C697" s="4"/>
       <c r="D697" s="4"/>
@@ -20662,7 +20736,7 @@
     <row r="734" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A734" s="3"/>
       <c r="B734" s="4"/>
-      <c r="C734" s="3"/>
+      <c r="C734" s="4"/>
       <c r="D734" s="4"/>
       <c r="E734" s="4"/>
       <c r="F734" s="4"/>
@@ -20687,7 +20761,7 @@
     <row r="735" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A735" s="3"/>
       <c r="B735" s="4"/>
-      <c r="C735" s="4"/>
+      <c r="C735" s="3"/>
       <c r="D735" s="4"/>
       <c r="E735" s="4"/>
       <c r="F735" s="4"/>
@@ -21159,8 +21233,33 @@
       <c r="V753" s="4"/>
       <c r="W753" s="4"/>
     </row>
+    <row r="754" customFormat="false" ht="13.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A754" s="3"/>
+      <c r="B754" s="4"/>
+      <c r="C754" s="4"/>
+      <c r="D754" s="4"/>
+      <c r="E754" s="4"/>
+      <c r="F754" s="4"/>
+      <c r="G754" s="4"/>
+      <c r="H754" s="4"/>
+      <c r="I754" s="4"/>
+      <c r="J754" s="4"/>
+      <c r="K754" s="4"/>
+      <c r="L754" s="4"/>
+      <c r="M754" s="4"/>
+      <c r="N754" s="4"/>
+      <c r="O754" s="4"/>
+      <c r="P754" s="4"/>
+      <c r="Q754" s="4"/>
+      <c r="R754" s="4"/>
+      <c r="S754" s="4"/>
+      <c r="T754" s="4"/>
+      <c r="U754" s="4"/>
+      <c r="V754" s="4"/>
+      <c r="W754" s="4"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A3:D753"/>
+  <autoFilter ref="A3:D754"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
